--- a/processed_invoices.xlsx
+++ b/processed_invoices.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4903.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4903-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4903.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4903-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4903.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4903-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4902.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4902-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4902.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4902-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4902.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4902-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4812.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4812-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4812.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4812-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4812.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4812-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4868.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4868-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4868.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4868-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4868.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4868-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4874.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4874-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4874.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4874-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4874.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4874-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4715.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4715-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4715.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4715-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4715.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4715-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4687.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4687-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4687.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4687-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4687.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4687-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4942.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4942-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4942.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4942-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4942.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4942-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4522.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4522-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4522.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4522-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>مواد بناء الامام2 فاتورة 4522.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام2 فاتورة 4522-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>مواد بناء الامام1 فاتورة 4583.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام1 فاتورة 4583-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>مواد بناء الامام1 فاتورة 4583.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام1 فاتورة 4583-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>مواد بناء الامام1 فاتورة 4583.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام1 فاتورة 4583-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>مواد بناء الامام1 فاتورة 4594.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام1 فاتورة 4594-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>مواد بناء الامام1 فاتورة 4594.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام1 فاتورة 4594-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>مواد بناء الامام1 فاتورة 4594.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام1 فاتورة 4594-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4572.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4572-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4572.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4572-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4572.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4572-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4576.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4576-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4576.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4576-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4576.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4576-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4532.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4532-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4532.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4532-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4532.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4532-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4543.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4543-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4543.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4543-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4543.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4543-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4537.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4537-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4537.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4537-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4537.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4537-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4814.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4814-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4814.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4814-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4814.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4814-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4876.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4876-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4876.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4876-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4876.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4876-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4869.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4869-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4869.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4869-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4869.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4869-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4854.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4854-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4854.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4854-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4854.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4854-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4793.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4793-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4793.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4793-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4793.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4793-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4863.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4863-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4863.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4863-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4863.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4863-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4883.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4883-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4883.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4883-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4883.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4883-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4794.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4794-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4794.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4794-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4794.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4794-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4713.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4713-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4713.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4713-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4713.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4713-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4778.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4778-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4778.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4778-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4778.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4778-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4699.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4699-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4699.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4699-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4699.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4699-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4733.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4733-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4733.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4733-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4733.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4733-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4950.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4950-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4950.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4950-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4950.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4950-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4963.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4963-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4963.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4963-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4963.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4963-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4967.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4967-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4967.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4967-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4967.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4967-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4941.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4941-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4941.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4941-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4941.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4941-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4901.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4901-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4901.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4901-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>مواد بناء الامام3 فاتورة 4901.0-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003.0</t>
+          <t>مواد بناء الامام3 فاتورة 4901-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
         </is>
       </c>
     </row>

--- a/processed_invoices.xlsx
+++ b/processed_invoices.xlsx
@@ -487,12 +487,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -580,12 +580,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50813</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>50213</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1417,12 +1417,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>50213</t>
+          <t>1201220</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>21052</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">

--- a/processed_invoices.xlsx
+++ b/processed_invoices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\تحويل الفواتير الى قيد يومية\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\original\invoices-to-journal-entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E27BDD-51AC-4E97-89CA-00602FED22A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A6D5D1-E2AC-4D05-B417-B7B7686B137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="50">
   <si>
     <t>التاريخ</t>
   </si>
@@ -43,7 +43,7 @@
     <t>الوصف</t>
   </si>
   <si>
-    <t>2023-10-29 00:00:00</t>
+    <t>2023-11-08 00:00:00</t>
   </si>
   <si>
     <t>مواد بناء الامام1</t>
@@ -55,7 +55,7 @@
     <t>107</t>
   </si>
   <si>
-    <t>مواد بناء الامام1 فاتورة st2023003163-شركة عين قرطبة للتجارة-310756149400003</t>
+    <t>مواد بناء الامام1 فاتورة 5463-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
   </si>
   <si>
     <t>ضريبة القيمة المضافة</t>
@@ -64,100 +64,112 @@
     <t>21054</t>
   </si>
   <si>
-    <t>شركة عين قرطبة للتجارة</t>
+    <t>مؤسسة شريفة حشيفان العتيبي لمواد البناء</t>
   </si>
   <si>
     <t>2101171</t>
   </si>
   <si>
-    <t>2023-10-24 00:00:00</t>
-  </si>
-  <si>
-    <t>مواد بناء فلل التخصصي</t>
-  </si>
-  <si>
-    <t>مواد بناء فلل التخصصي فاتورة st2023003124-شركة عين قرطبة للتجارة-310756149400003</t>
-  </si>
-  <si>
     <t>2023-10-31 00:00:00</t>
   </si>
   <si>
     <t>مواد بناء الامام2</t>
   </si>
   <si>
-    <t>مواد بناء الامام2 فاتورة 19589-مؤسسة خالد عبدالله محمد البديوي للتجارة-300027124400003</t>
-  </si>
-  <si>
-    <t>مؤسسة خالد عبدالله محمد البديوي للتجارة</t>
+    <t>مواد بناء الامام2 فاتورة 5356-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-02 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام2 فاتورة 5390-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-07 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام2 فاتورة 5453-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام2 فاتورة 5461-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-09 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام2 فاتورة 5488-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام2 فاتورة 5556-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-18 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام2 فاتورة 5620-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
   </si>
   <si>
     <t>مواد بناء الامام3</t>
   </si>
   <si>
-    <t>مواد بناء الامام3 فاتورة 19572-مؤسسة خالد عبدالله محمد البديوي للتجارة-300027124400003</t>
-  </si>
-  <si>
-    <t>2023-10-30 00:00:00</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 36912-مؤسسة صوال حاسن العتيبي للمقاولات-300833379900003</t>
-  </si>
-  <si>
-    <t>مؤسسة صوال حاسن العتيبي للمقاولات</t>
-  </si>
-  <si>
-    <t>2023-10-16 00:00:00</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 21000305-شركة عالم النفط للتجارة-311247699900003</t>
-  </si>
-  <si>
-    <t>شركة عالم النفط للتجارة</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 36906-مؤسسة صوال حاسن العتيبي للمقاولات-300833379900003</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 36861-مؤسسة صوال حاسن العتيبي للمقاولات-300833379900003</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة inv-7912-مؤسسة الجهود التجارية-311473297800003</t>
-  </si>
-  <si>
-    <t>مؤسسة الجهود التجارية</t>
-  </si>
-  <si>
-    <t>2023-10-25 00:00:00</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 1015620-شركة الحوامة للتجارة-311340058700003</t>
-  </si>
-  <si>
-    <t>شركة الحوامة للتجارة</t>
-  </si>
-  <si>
-    <t>2023-10-23 00:00:00</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 177218-مؤسسة صفاء الريم-301247569100003</t>
-  </si>
-  <si>
-    <t>مؤسسة صفاء الريم</t>
-  </si>
-  <si>
-    <t>2023-10-26 00:00:00</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 177921-شركة صفاء الريم-301347369300003</t>
-  </si>
-  <si>
-    <t>شركة صفاء الريم</t>
-  </si>
-  <si>
-    <t>مواد بناء الامام3 فاتورة 62314747-شركة الوان الاضاءة العالمية للتجارة-310279979400003</t>
-  </si>
-  <si>
-    <t>شركة الوان الاضاءة العالمية للتجارة</t>
+    <t>مواد بناء الامام3 فاتورة 5454-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5504-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-05 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5420-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5398-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5412-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5410-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5419-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5358-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5364-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5388-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>2023-11-01 00:00:00</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5373-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5477-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5470-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5462-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
+  </si>
+  <si>
+    <t>مواد بناء الامام3 فاتورة 5355-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310169565400003</t>
   </si>
 </sst>
 </file>
@@ -520,21 +532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>756.3</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -585,7 +596,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>113.44499999999999</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -605,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2300</v>
+        <v>869.74499999999989</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -625,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>23129.4</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -645,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>3469.41</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -665,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>460</v>
+        <v>26598.81</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -685,19 +696,19 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>152.16999999999999</v>
+        <v>1391</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>22.825500000000002</v>
+        <v>208.65</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -717,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -725,10 +736,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>174.99549999999999</v>
+        <v>1599.65</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -737,18 +748,18 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>91.3</v>
+        <v>1199.7</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -757,15 +768,15 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>13.695</v>
+        <v>179.95500000000001</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -777,55 +788,55 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>104.995</v>
+        <v>1379.655</v>
       </c>
       <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>347.83</v>
+        <v>3043.25</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>52.174499999999988</v>
+        <v>456.48750000000001</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -837,18 +848,18 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>400.00450000000001</v>
+        <v>3499.7375000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -857,18 +868,18 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>30.43</v>
+        <v>1304.25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -877,15 +888,15 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>4.5644999999999998</v>
+        <v>195.63749999999999</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -897,18 +908,18 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>34.994500000000002</v>
+        <v>1499.8875</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -917,18 +928,18 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>17.39</v>
+        <v>8134.45</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -937,15 +948,15 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>2.6084999999999998</v>
+        <v>1220.1675</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -957,38 +968,38 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>19.9985</v>
+        <v>9354.6175000000003</v>
       </c>
       <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>130.43</v>
+        <v>495.63</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -997,15 +1008,15 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>19.564499999999999</v>
+        <v>74.344499999999996</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1017,18 +1028,18 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>149.99449999999999</v>
+        <v>569.97450000000003</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1037,18 +1048,18 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>1380</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1057,15 +1068,15 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>207</v>
+        <v>13.05</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1077,18 +1088,18 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>1587</v>
+        <v>100.05</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1097,18 +1108,18 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1117,15 +1128,15 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>15.6</v>
+        <v>26.1</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1137,18 +1148,18 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>119.6</v>
+        <v>200.1</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1157,18 +1168,18 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>305</v>
+        <v>695.5</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1177,15 +1188,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>45.75</v>
+        <v>104.325</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1197,18 +1208,18 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>350.75</v>
+        <v>799.82500000000005</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -1217,18 +1228,18 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>430</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1237,15 +1248,15 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>64.5</v>
+        <v>24.75</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1257,18 +1268,18 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>494.5</v>
+        <v>189.75</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
@@ -1277,18 +1288,18 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>2500</v>
+        <v>695.5</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1297,15 +1308,15 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>375</v>
+        <v>104.325</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1317,27 +1328,627 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>799.82500000000005</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>495.6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>74.34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>569.94000000000005</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45">
+        <v>24.75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>189.75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>435</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>65.25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>500.25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>19</v>
       </c>
-      <c r="C40">
-        <v>2875</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>575</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <v>1098.1300000000001</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
         <v>45</v>
       </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>44</v>
+      </c>
+      <c r="B57">
+        <v>164.71950000000001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>1262.8495</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>2608.5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>391.27499999999998</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2999.7750000000001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>810.15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>121.52249999999999</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>931.67250000000001</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>630.25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>94.537499999999994</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>724.78750000000002</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>208.8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>31.32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>240.12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
